--- a/data/Kolommen.xlsx
+++ b/data/Kolommen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willy\GitHub\microsubsidies\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026634B7-F2DD-4DB9-8EE2-EC8D8A917F0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE31695-E50C-4FF7-8FA1-E969BCFCA842}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00789464-5DEB-4122-BD21-86461D485874}"/>
   </bookViews>
@@ -249,9 +249,6 @@
     <t>eigendom onbekend (als % van de woningvoorraad) (%) 2018</t>
   </si>
   <si>
-    <t>woningen met bouwjaar tot 2000 (%)</t>
-  </si>
-  <si>
     <t>woningen met bouwjaar in en na 2000 (%) 2018</t>
   </si>
   <si>
@@ -614,6 +611,9 @@
   </si>
   <si>
     <t xml:space="preserve"> personen met een migratieachtergrond met een westerse herkomst [%]</t>
+  </si>
+  <si>
+    <t>woningen met bouwjaar tot 2000 (%) 2018</t>
   </si>
 </sst>
 </file>
@@ -995,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5409938-7399-4E74-B7DD-DD50339E0CB9}">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,231 +1007,231 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>15</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>16</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>17</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>41</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>47</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>42</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>43</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>44</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>45</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>46</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>48</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>49</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>50</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>51</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>52</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>53</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>54</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>64</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>65</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>55</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>56</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>57</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>58</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>59</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>60</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>61</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>62</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>63</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>66</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>67</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>68</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>69</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>70</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>71</v>
@@ -1655,130 +1655,130 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
